--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -1817,17 +1817,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.7109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.29296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1836,26 +1836,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.71484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.05078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="92.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$88</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2925" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,8 @@
   <si>
     <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
 Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
-For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle "organisasjonshierarki" skal inkludere minst et organisasjonsnummer fra Enhetsregisteret (identifier:ENH) </t>
+For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra enten Enhetsregisteret (identifier:ENH) eller Register for enheter i spesialisthelsetjenesten (identifier:RSH).
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1114,10 +1115,6 @@
     <t>official</t>
   </si>
   <si>
-    <t>extensions
-user contentoffisiell adresse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-address-official}
 </t>
   </si>
@@ -1134,18 +1131,18 @@
     <t>urbanDistrict</t>
   </si>
   <si>
-    <t>extensions
-user contentbydelurban district</t>
+    <t>bydel
+urban district</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-urban-district}
 </t>
   </si>
   <si>
-    <t>urban district information</t>
-  </si>
-  <si>
-    <t>The name and number of the of the urban district of this address.</t>
+    <t>Kodet verdi for bydel. Kodeverk "Bydelsnummer" (OID 3403)</t>
+  </si>
+  <si>
+    <t>Kodet verdi for bydel. Koder fra kodeverk "Bydelsnummer" (OID 3403) skal benyttes</t>
   </si>
   <si>
     <t>Organization.address.extension:propertyInformation</t>
@@ -1158,26 +1155,10 @@
 </t>
   </si>
   <si>
-    <t>Real property identification</t>
-  </si>
-  <si>
-    <t>Identification of a real property in Norway is defined using gårdsnummer, bruksnummer and kommunenummer. In addition real property can be rented out, the area of the real property that is rented is measured and is further identified by its festenummer. In addition some real property is split into sections identified by its seksjonsnummer</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:lmdiUrbanDistrict</t>
-  </si>
-  <si>
-    <t>lmdiUrbanDistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-urban-district}
-</t>
-  </si>
-  <si>
-    <t>Kodet verdi for bydel</t>
-  </si>
-  <si>
-    <t>Information about Norwegian urban district (bydel)</t>
+    <t>real property identification</t>
+  </si>
+  <si>
+    <t>Additional information identifying norwegian real property.</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -1211,7 +1192,7 @@
     <t>Organization.address.type</t>
   </si>
   <si>
-    <t>postal | physical | both</t>
+    <t>physical</t>
   </si>
   <si>
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.
@@ -1221,16 +1202,10 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>physical</t>
-  </si>
-  <si>
     <t>both</t>
   </si>
   <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+    <t>http://hl7.no/fhir/ig/lmdi/ValueSet/lmdi-address-type</t>
   </si>
   <si>
     <t>Address.type</t>
@@ -1331,7 +1306,10 @@
 </t>
   </si>
   <si>
-    <t>Kodet verdi for kommune</t>
+    <t>Kodet verdi for kommune. Kodeverk "Kommunenummer og regionale spesialkoder" (OID 3402)</t>
+  </si>
+  <si>
+    <t>Kodet verdi for kommune. Koder fra kodeverk "Kommunenummer og regionale spesialkoder" (OID 3402) skal benyttes</t>
   </si>
   <si>
     <t>Organization.address.district.value</t>
@@ -1884,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ89"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1918,7 +1896,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.9921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -7590,7 +7568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>321</v>
       </c>
@@ -7902,7 +7880,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>339</v>
       </c>
@@ -8219,14 +8197,14 @@
         <v>350</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>351</v>
+        <v>73</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>73</v>
@@ -8238,17 +8216,15 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>73</v>
@@ -8314,16 +8290,16 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>348</v>
       </c>
       <c r="C63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="D63" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8342,17 +8318,15 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>73</v>
@@ -8418,23 +8392,23 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>348</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>73</v>
@@ -8446,17 +8420,15 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>129</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>73</v>
@@ -8522,14 +8494,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>73</v>
       </c>
@@ -8544,22 +8514,26 @@
         <v>73</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>73</v>
       </c>
@@ -8571,7 +8545,7 @@
         <v>73</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>73</v>
+        <v>370</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>73</v>
@@ -8583,13 +8557,13 @@
         <v>73</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>73</v>
+        <v>372</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>73</v>
@@ -8607,27 +8581,27 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8644,7 +8618,7 @@
         <v>73</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>82</v>
@@ -8653,17 +8627,15 @@
         <v>102</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>73</v>
       </c>
@@ -8672,10 +8644,10 @@
         <v>73</v>
       </c>
       <c r="S66" t="s" s="2">
-        <v>73</v>
+        <v>375</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>73</v>
@@ -8689,11 +8661,9 @@
       <c r="X66" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>73</v>
@@ -8711,7 +8681,7 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
@@ -8728,10 +8698,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8742,7 +8712,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -8754,18 +8724,20 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>73</v>
       </c>
@@ -8774,10 +8746,10 @@
         <v>73</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="T67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U67" t="s" s="2">
         <v>73</v>
@@ -8789,31 +8761,31 @@
         <v>73</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
@@ -8830,10 +8802,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8859,17 +8831,15 @@
         <v>155</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>73</v>
       </c>
@@ -8881,7 +8851,7 @@
         <v>73</v>
       </c>
       <c r="T68" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="U68" t="s" s="2">
         <v>73</v>
@@ -8917,13 +8887,13 @@
         <v>73</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>93</v>
@@ -8934,14 +8904,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>73</v>
+        <v>394</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -8963,10 +8933,10 @@
         <v>155</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>283</v>
@@ -8983,7 +8953,7 @@
         <v>73</v>
       </c>
       <c r="T69" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="U69" t="s" s="2">
         <v>73</v>
@@ -9019,13 +8989,13 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>93</v>
@@ -9036,21 +9006,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>73</v>
@@ -9065,13 +9035,13 @@
         <v>155</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9085,43 +9055,43 @@
         <v>73</v>
       </c>
       <c r="T70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
@@ -9138,14 +9108,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9161,20 +9131,18 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>409</v>
+        <v>156</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>73</v>
@@ -9187,7 +9155,7 @@
         <v>73</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>412</v>
+        <v>73</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>73</v>
@@ -9223,7 +9191,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>413</v>
+        <v>158</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -9232,29 +9200,29 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>73</v>
@@ -9266,15 +9234,17 @@
         <v>73</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>73</v>
@@ -9311,50 +9281,52 @@
         <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="D73" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>73</v>
@@ -9366,17 +9338,15 @@
         <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>126</v>
+        <v>410</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>127</v>
+        <v>411</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>73</v>
@@ -9413,16 +9383,16 @@
         <v>73</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>162</v>
@@ -9442,14 +9412,12 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>73</v>
       </c>
@@ -9470,13 +9438,13 @@
         <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9500,7 +9468,7 @@
         <v>73</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>73</v>
@@ -9527,31 +9495,31 @@
         <v>73</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>162</v>
+        <v>416</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>73</v>
+        <v>418</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -9567,18 +9535,20 @@
         <v>73</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>73</v>
@@ -9600,7 +9570,7 @@
         <v>73</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>422</v>
+        <v>73</v>
       </c>
       <c r="X75" t="s" s="2">
         <v>73</v>
@@ -9627,7 +9597,7 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>74</v>
@@ -9636,29 +9606,29 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>73</v>
@@ -9673,10 +9643,10 @@
         <v>155</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>283</v>
@@ -9693,7 +9663,7 @@
         <v>73</v>
       </c>
       <c r="T76" t="s" s="2">
-        <v>73</v>
+        <v>426</v>
       </c>
       <c r="U76" t="s" s="2">
         <v>73</v>
@@ -9729,7 +9699,7 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -9746,14 +9716,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>430</v>
+        <v>73</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9775,13 +9745,13 @@
         <v>155</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9795,7 +9765,7 @@
         <v>73</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>433</v>
+        <v>73</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>73</v>
@@ -9831,7 +9801,7 @@
         <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>74</v>
@@ -9848,10 +9818,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9874,18 +9844,20 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O78" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>73</v>
       </c>
@@ -9897,7 +9869,7 @@
         <v>73</v>
       </c>
       <c r="T78" t="s" s="2">
-        <v>73</v>
+        <v>437</v>
       </c>
       <c r="U78" t="s" s="2">
         <v>73</v>
@@ -9933,7 +9905,7 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
@@ -9945,15 +9917,15 @@
         <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9967,7 +9939,7 @@
         <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>73</v>
@@ -9976,16 +9948,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>202</v>
+        <v>440</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>443</v>
@@ -10001,7 +9973,7 @@
         <v>73</v>
       </c>
       <c r="T79" t="s" s="2">
-        <v>444</v>
+        <v>73</v>
       </c>
       <c r="U79" t="s" s="2">
         <v>73</v>
@@ -10037,7 +10009,7 @@
         <v>73</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
@@ -10049,15 +10021,15 @@
         <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10068,31 +10040,31 @@
         <v>74</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>73</v>
@@ -10141,27 +10113,27 @@
         <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>215</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10172,7 +10144,7 @@
         <v>74</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>73</v>
@@ -10184,20 +10156,16 @@
         <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>452</v>
+        <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>453</v>
+        <v>156</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>73</v>
       </c>
@@ -10245,38 +10213,38 @@
         <v>73</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>451</v>
+        <v>158</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>73</v>
@@ -10288,15 +10256,17 @@
         <v>73</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>73</v>
@@ -10333,43 +10303,43 @@
         <v>73</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>125</v>
+        <v>453</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -10382,24 +10352,26 @@
         <v>73</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>126</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>127</v>
+        <v>454</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="O83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>73</v>
       </c>
@@ -10435,19 +10407,19 @@
         <v>73</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>162</v>
+        <v>456</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>74</v>
@@ -10464,45 +10436,45 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O84" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>73</v>
@@ -10527,13 +10499,13 @@
         <v>73</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>73</v>
+        <v>462</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>73</v>
@@ -10551,19 +10523,19 @@
         <v>73</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" hidden="true">
@@ -10594,19 +10566,19 @@
         <v>73</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>175</v>
+        <v>465</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>73</v>
@@ -10631,13 +10603,13 @@
         <v>73</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>469</v>
+        <v>73</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>73</v>
@@ -10672,10 +10644,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10686,7 +10658,7 @@
         <v>74</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>73</v>
@@ -10698,19 +10670,17 @@
         <v>73</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>73</v>
@@ -10759,27 +10729,27 @@
         <v>73</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>94</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10790,7 +10760,7 @@
         <v>74</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>73</v>
@@ -10802,17 +10772,19 @@
         <v>73</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O87" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>73</v>
@@ -10861,27 +10833,27 @@
         <v>73</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>481</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10892,7 +10864,7 @@
         <v>74</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>73</v>
@@ -10904,19 +10876,19 @@
         <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>340</v>
+        <v>479</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>342</v>
+        <v>481</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>73</v>
@@ -10965,137 +10937,33 @@
         <v>73</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ89">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AJ88">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI87">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-lmdi-organization.xlsx
+++ b/StructureDefinition-lmdi-organization.xlsx
@@ -84,10 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
-Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post).
-For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen. Alle “organisasjonshierarki” skal inkludere minst et organisasjonsnummer fra enten Enhetsregisteret (identifier:ENH) eller Register for enheter i spesialisthelsetjenesten (identifier:RSH).
-</t>
+    <t>Organisasjoner i norsk helse- og omsorgstjeneste, som post, avdeling, klinikk, sykehus og sykehjem, basert på no-basis-Organization.
+Denne profilen av Organization benyttes for å beskrive helseinstitusjoner og skal representere organisasjonen på lavest mulig nivå i organisasjonshierarkiet (f.eks. en avdeling eller klinikk eller post). For organisasjonen som er del av en større organisasjon, skal dette angis ved hjelp av partOf-relasjonen.
+Det er ønskelig at minimum følgende inngår i "organisasjonshierarkiet":
+- organisasjonen på lavest mulig nivå (dvs. post, enhet, avdeling eller lignende)
+- organisasjonen på høyre nivå
+     - sykehus, Helseforetak og Regionalt Helseforetak
+     - sykehjem, kommune
+- minst ett organisasjonsnummer fra enten Enhetsregisteret (identifier:ENH) eller Register for enheter i spesialisthelsetjenesten (identifier:RSH)</t>
   </si>
   <si>
     <t>Purpose</t>
